--- a/medicine/Enfance/May_Angeli/May_Angeli.xlsx
+++ b/medicine/Enfance/May_Angeli/May_Angeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">May Angeli (née en 1937) est une peintre, graveuse, auteure et illustratrice française de littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">May Angeli est née à Clichy. Sa mère est française et son père tchèque. Elle a suivi une formation à l'École des métiers d’art à Paris. Elle pratique d'abord dans les années 1960 des techniques à la gouache, à l’encre et à l’aquarelle. En 1980, elle découvre la gravure sur bois à Académie d'arts graphiques d'Urbino en Italie. En parallèle de sa carrière, elle anime régulièrement des ateliers à destination des enfants. Elle travaille et vit actuellement à Paris[1],[2],[3],[4],[5],[6].
-Elle collabore avec Sylvie Baussier pour illustrer des ouvrages de la collection « les petites histoires des hommes », comme Petite histoire des langues (2002)[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">May Angeli est née à Clichy. Sa mère est française et son père tchèque. Elle a suivi une formation à l'École des métiers d’art à Paris. Elle pratique d'abord dans les années 1960 des techniques à la gouache, à l’encre et à l’aquarelle. En 1980, elle découvre la gravure sur bois à Académie d'arts graphiques d'Urbino en Italie. En parallèle de sa carrière, elle anime régulièrement des ateliers à destination des enfants. Elle travaille et vit actuellement à Paris.
+Elle collabore avec Sylvie Baussier pour illustrer des ouvrages de la collection « les petites histoires des hommes », comme Petite histoire des langues (2002).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[8],[9],[10], dont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres dont :
 Le paravant aux images  (ill. May Angeli), 1962.
 Histoire du Bernard l'ermite  (ill. May Angeli), 1965.
 La maison des oiseaux  (ill. May Angeli), 1969.
@@ -571,7 +587,7 @@
 May Angeli, Manège, 2000.
 May Angeli, La robe de Jneina, 2000.
 May Angeli, Mon jardin, mon potager, 2001.
-Sylvie Baussier, Petite histoire des langues[7], Syros jeunesse, 2002 (ISBN 2-84146-969-7).
+Sylvie Baussier, Petite histoire des langues, Syros jeunesse, 2002 (ISBN 2-84146-969-7).
 Zora l'ânesse  (ill. May Angeli), 2002.
 Sylvie Baussier (ill. May Angeli), Petite histoire du temps, Syros jeunesse, 2002 (ISBN 978-2748500431).
 May Angeli, Je ne peux pas m'habiller !, 2003.
@@ -625,11 +641,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2002, avec Sylvie Baussier, elle reçoit le Prix Octogne, décerné par le Centre international d'études en littérature de jeunesse (CIELJ), catégorie documentaire, pour Petite histoire des langues[7].
-En 2013, elle obtient le Grand Prix de l’illustration décerné par le Musée de l’illustration jeunesse de Moulins, pour son titre Des oiseaux édité aux éditions Thierry Magnier[11].
-Coup de cœur Jeune Public printemps 2021 de l'Académie Charles-Cros pour les illustrations de Le Carnaval des animaux sud-américains[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, avec Sylvie Baussier, elle reçoit le Prix Octogne, décerné par le Centre international d'études en littérature de jeunesse (CIELJ), catégorie documentaire, pour Petite histoire des langues.
+En 2013, elle obtient le Grand Prix de l’illustration décerné par le Musée de l’illustration jeunesse de Moulins, pour son titre Des oiseaux édité aux éditions Thierry Magnier.
+Coup de cœur Jeune Public printemps 2021 de l'Académie Charles-Cros pour les illustrations de Le Carnaval des animaux sud-américains.
 </t>
         </is>
       </c>
